--- a/Danh Sach Lop/Online TOEIC.xlsx
+++ b/Danh Sach Lop/Online TOEIC.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="TOEIC 500-700 K1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Huỳnh Thị Mộng Chúc</t>
   </si>
@@ -37,14 +37,56 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Khóa TOECI 500-700 K1 (18/10/2016 - 30/01/2016)</t>
+    <t>Khóa TOEIC 500-700 K1 (18/10/2016 - 30/01/2016)</t>
+  </si>
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>L Correct Answer</t>
+  </si>
+  <si>
+    <t>R Correct Answer</t>
+  </si>
+  <si>
+    <t>L Points</t>
+  </si>
+  <si>
+    <t>R Points</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
+    <t>Part 1</t>
+  </si>
+  <si>
+    <t>Part 2</t>
+  </si>
+  <si>
+    <t>Part 3</t>
+  </si>
+  <si>
+    <t>Part 4</t>
+  </si>
+  <si>
+    <t>Part 5</t>
+  </si>
+  <si>
+    <t>Part 6</t>
+  </si>
+  <si>
+    <t>Part 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +117,117 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,10 +239,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -108,8 +264,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent6" xfId="9" builtinId="51"/>
+    <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
+    <cellStyle name="60% - Accent6" xfId="10" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="7" builtinId="49"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,26 +614,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -450,8 +684,34 @@
       <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="G3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -462,8 +722,47 @@
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
+      <c r="G4" s="17">
+        <v>6</v>
+      </c>
+      <c r="H4" s="17">
+        <v>13</v>
+      </c>
+      <c r="I4" s="17">
+        <v>8</v>
+      </c>
+      <c r="J4" s="17">
+        <v>11</v>
+      </c>
+      <c r="K4" s="17">
+        <v>25</v>
+      </c>
+      <c r="L4" s="17">
+        <v>6</v>
+      </c>
+      <c r="M4" s="17">
+        <v>28</v>
+      </c>
+      <c r="N4" s="17">
+        <f t="shared" ref="N4" si="0">SUM(G4:J4)</f>
+        <v>38</v>
+      </c>
+      <c r="O4" s="17">
+        <f t="shared" ref="O4" si="1">SUM(K4:M4)</f>
+        <v>59</v>
+      </c>
+      <c r="P4" s="17">
+        <v>175</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>265</v>
+      </c>
+      <c r="R4" s="18">
+        <f t="shared" ref="R4" si="2">P4+Q4</f>
+        <v>440</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
@@ -471,6 +770,15 @@
       <c r="F5" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Danh Sach Lop/Online TOEIC.xlsx
+++ b/Danh Sach Lop/Online TOEIC.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 500-700 K1" sheetId="2" r:id="rId1"/>
+    <sheet name="TOEIC 300-500 K1" sheetId="3" r:id="rId2"/>
+    <sheet name="TOEIC 500-700 K2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>Huỳnh Thị Mộng Chúc</t>
   </si>
@@ -80,6 +82,24 @@
   </si>
   <si>
     <t>Part 7</t>
+  </si>
+  <si>
+    <t>Hoàng Trọng Đức</t>
+  </si>
+  <si>
+    <t>Thuc Nguyen</t>
+  </si>
+  <si>
+    <t>Dai</t>
+  </si>
+  <si>
+    <t>Khóa TOEIC 500-700 K2 (11/02/2017 - 16/04/2017)</t>
+  </si>
+  <si>
+    <t>Hien Tran</t>
+  </si>
+  <si>
+    <t>Tuyen Pham</t>
   </si>
 </sst>
 </file>
@@ -252,7 +272,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -264,15 +284,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -298,6 +309,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -616,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,30 +664,30 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -684,32 +710,32 @@
       <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -722,42 +748,42 @@
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="17">
+      <c r="G4" s="14">
         <v>6</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="14">
         <v>13</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <v>8</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>11</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="14">
         <v>25</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="14">
         <v>6</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="14">
         <v>28</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="14">
         <f t="shared" ref="N4" si="0">SUM(G4:J4)</f>
         <v>38</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="14">
         <f t="shared" ref="O4" si="1">SUM(K4:M4)</f>
         <v>59</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="14">
         <v>175</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="14">
         <v>265</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="15">
         <f t="shared" ref="R4" si="2">P4+Q4</f>
         <v>440</v>
       </c>
@@ -768,6 +794,9 @@
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+      <c r="K5" s="1">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -781,4 +810,692 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14">
+        <v>5</v>
+      </c>
+      <c r="H4" s="14">
+        <v>10</v>
+      </c>
+      <c r="I4" s="14">
+        <v>4</v>
+      </c>
+      <c r="J4" s="14">
+        <v>10</v>
+      </c>
+      <c r="K4" s="14">
+        <v>10</v>
+      </c>
+      <c r="L4" s="14">
+        <v>6</v>
+      </c>
+      <c r="M4" s="14">
+        <v>16</v>
+      </c>
+      <c r="N4" s="14">
+        <f t="shared" ref="N4" si="0">SUM(G4:J4)</f>
+        <v>29</v>
+      </c>
+      <c r="O4" s="14">
+        <f t="shared" ref="O4" si="1">SUM(K4:M4)</f>
+        <v>32</v>
+      </c>
+      <c r="P4" s="14">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>100</v>
+      </c>
+      <c r="R4" s="15">
+        <f t="shared" ref="R4" si="2">P4+Q4</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14">
+        <v>4</v>
+      </c>
+      <c r="H4" s="14">
+        <v>17</v>
+      </c>
+      <c r="I4" s="14">
+        <v>7</v>
+      </c>
+      <c r="J4" s="14">
+        <v>15</v>
+      </c>
+      <c r="K4" s="14">
+        <v>22</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1</v>
+      </c>
+      <c r="M4" s="14">
+        <v>16</v>
+      </c>
+      <c r="N4" s="14">
+        <f>SUM(G4:J4)</f>
+        <v>43</v>
+      </c>
+      <c r="O4" s="14">
+        <f>SUM(K4:M4)</f>
+        <v>39</v>
+      </c>
+      <c r="P4" s="14">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>145</v>
+      </c>
+      <c r="R4" s="15">
+        <f t="shared" ref="R4:R6" si="0">P4+Q4</f>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14">
+        <v>7</v>
+      </c>
+      <c r="H5" s="14">
+        <v>19</v>
+      </c>
+      <c r="I5" s="14">
+        <v>12</v>
+      </c>
+      <c r="J5" s="14">
+        <v>16</v>
+      </c>
+      <c r="K5" s="14">
+        <v>26</v>
+      </c>
+      <c r="L5" s="14">
+        <v>3</v>
+      </c>
+      <c r="M5" s="14">
+        <v>12</v>
+      </c>
+      <c r="N5" s="14">
+        <f>SUM(G5:J5)</f>
+        <v>54</v>
+      </c>
+      <c r="O5" s="14">
+        <f>SUM(K5:M5)</f>
+        <v>41</v>
+      </c>
+      <c r="P5" s="14">
+        <v>275</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>160</v>
+      </c>
+      <c r="R5" s="15">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="14">
+        <v>6</v>
+      </c>
+      <c r="H6" s="14">
+        <v>13</v>
+      </c>
+      <c r="I6" s="14">
+        <v>16</v>
+      </c>
+      <c r="J6" s="14">
+        <v>10</v>
+      </c>
+      <c r="K6" s="14">
+        <v>18</v>
+      </c>
+      <c r="L6" s="14">
+        <v>3</v>
+      </c>
+      <c r="M6" s="14">
+        <v>16</v>
+      </c>
+      <c r="N6" s="14">
+        <f>SUM(G6:J6)</f>
+        <v>45</v>
+      </c>
+      <c r="O6" s="14">
+        <f>SUM(K6:M6)</f>
+        <v>37</v>
+      </c>
+      <c r="P6" s="14">
+        <v>215</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>130</v>
+      </c>
+      <c r="R6" s="15">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="14">
+        <v>7</v>
+      </c>
+      <c r="H7" s="14">
+        <v>16</v>
+      </c>
+      <c r="I7" s="14">
+        <v>9</v>
+      </c>
+      <c r="J7" s="14">
+        <v>14</v>
+      </c>
+      <c r="K7" s="14">
+        <v>17</v>
+      </c>
+      <c r="L7" s="14">
+        <v>2</v>
+      </c>
+      <c r="M7" s="14">
+        <v>14</v>
+      </c>
+      <c r="N7" s="14">
+        <f>SUM(G7:J7)</f>
+        <v>46</v>
+      </c>
+      <c r="O7" s="14">
+        <f>SUM(K7:M7)</f>
+        <v>33</v>
+      </c>
+      <c r="P7" s="14">
+        <v>220</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>110</v>
+      </c>
+      <c r="R7" s="15">
+        <f t="shared" ref="R7" si="1">P7+Q7</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Danh Sach Lop/Online TOEIC.xlsx
+++ b/Danh Sach Lop/Online TOEIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 500-700 K1" sheetId="2" r:id="rId1"/>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,6 +968,9 @@
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -987,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
